--- a/biology/Botanique/Vladimir_Leontievitch_Komarov/Vladimir_Leontievitch_Komarov.xlsx
+++ b/biology/Botanique/Vladimir_Leontievitch_Komarov/Vladimir_Leontievitch_Komarov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vladimir Leontievitch Komarov (en russe : Влади́мир Лео́нтьевич Комаро́в) est un botaniste russe et soviétique, né en 1869 et mort en 1945.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été président de l'Académie des sciences d'URSS de 1936 à 1945, et président de la Société botanique de Russie de 1930 à 1945. L'Institut de botanique Komarov à Saint-Pétersbourg porte son nom ainsi que la station balnéaire de Komarovo, près de Saint-Pétersbourg.
 Il dirige jusqu’à sa mort la publication Flora SSSR (La Flore de l'URSS). Celle-ci, commencée en 1934 s’achève en 1960 avec la parution du trentième volume. Il est enterré au cimetière Novodiévitchi de Moscou.
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Coniferae de Mandchourie. Trudy Imp. S.Peterburgsk. Obsc. 32: 230-241 (1902).
 De Gymnospermis nonnullis Asiaticis I, II. Bot. Mater. Gerb. Glavn. Bot. Sada RSFSR 4: 177-181, 5: 25-32 (1923-1924).
